--- a/data_month/zb/价格指数/工业生产者出厂价格分类指数/工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/工业生产者出厂价格分类指数/工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,302 +453,302 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.6</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>106.1</v>
+        <v>101.9</v>
       </c>
       <c r="D2" t="n">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.5</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>105.8</v>
+        <v>103.1</v>
       </c>
       <c r="D3" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.8</v>
+        <v>101.9</v>
       </c>
       <c r="C4" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="D4" t="n">
-        <v>98.40000000000001</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>102.6</v>
       </c>
       <c r="C5" t="n">
-        <v>101.9</v>
+        <v>105.3</v>
       </c>
       <c r="D5" t="n">
-        <v>96.5</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101</v>
+        <v>102.5</v>
       </c>
       <c r="C6" t="n">
-        <v>103.1</v>
+        <v>104.9</v>
       </c>
       <c r="D6" t="n">
-        <v>97.40000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.9</v>
+        <v>102.9</v>
       </c>
       <c r="C7" t="n">
-        <v>104.4</v>
+        <v>105.5</v>
       </c>
       <c r="D7" t="n">
-        <v>97.2</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.6</v>
+        <v>104.5</v>
       </c>
       <c r="C8" t="n">
-        <v>105.3</v>
+        <v>107.2</v>
       </c>
       <c r="D8" t="n">
-        <v>97.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.5</v>
+        <v>103.9</v>
       </c>
       <c r="C9" t="n">
-        <v>104.9</v>
+        <v>106.4</v>
       </c>
       <c r="D9" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9</v>
+        <v>103.7</v>
       </c>
       <c r="C10" t="n">
-        <v>105.5</v>
+        <v>106.4</v>
       </c>
       <c r="D10" t="n">
-        <v>98.40000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.5</v>
+        <v>103.6</v>
       </c>
       <c r="C11" t="n">
-        <v>107.2</v>
+        <v>106.1</v>
       </c>
       <c r="D11" t="n">
-        <v>99.7</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.9</v>
+        <v>103.5</v>
       </c>
       <c r="C12" t="n">
-        <v>106.4</v>
+        <v>105.8</v>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.7</v>
+        <v>102.8</v>
       </c>
       <c r="C13" t="n">
-        <v>106.4</v>
+        <v>104.6</v>
       </c>
       <c r="D13" t="n">
-        <v>97.3</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.90000000000001</v>
+        <v>101.43</v>
       </c>
       <c r="C14" t="n">
-        <v>96.3</v>
+        <v>102.71</v>
       </c>
       <c r="D14" t="n">
-        <v>98.59999999999999</v>
+        <v>98.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.3</v>
+        <v>100.86</v>
       </c>
       <c r="C15" t="n">
-        <v>95.5</v>
+        <v>101.8</v>
       </c>
       <c r="D15" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96</v>
+        <v>100.2</v>
       </c>
       <c r="C16" t="n">
-        <v>95.2</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.43</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>102.71</v>
+        <v>100.4</v>
       </c>
       <c r="D17" t="n">
-        <v>98.36</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.86</v>
+        <v>99.8</v>
       </c>
       <c r="C18" t="n">
-        <v>101.8</v>
+        <v>100.1</v>
       </c>
       <c r="D18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D19" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C20" t="n">
-        <v>100.4</v>
+        <v>98.7</v>
       </c>
       <c r="D20" t="n">
         <v>98.8</v>
@@ -757,926 +757,926 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.8</v>
+        <v>98</v>
       </c>
       <c r="C21" t="n">
-        <v>100.1</v>
+        <v>97.8</v>
       </c>
       <c r="D21" t="n">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>99.8</v>
+        <v>96.5</v>
       </c>
       <c r="D22" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>98.7</v>
+        <v>96.3</v>
       </c>
       <c r="D23" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98</v>
+        <v>96.3</v>
       </c>
       <c r="C24" t="n">
-        <v>97.8</v>
+        <v>95.5</v>
       </c>
       <c r="D24" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="C25" t="n">
-        <v>96.5</v>
+        <v>95.2</v>
       </c>
       <c r="D25" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.97</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>99.34999999999999</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>98.06</v>
+        <v>97.83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.59</v>
+        <v>95.91</v>
       </c>
       <c r="C27" t="n">
-        <v>100.24</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>98.04000000000001</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.41</v>
+        <v>95.98</v>
       </c>
       <c r="C28" t="n">
-        <v>101.31</v>
+        <v>95.44</v>
       </c>
       <c r="D28" t="n">
-        <v>98.29000000000001</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.01000000000001</v>
+        <v>96.94</v>
       </c>
       <c r="C29" t="n">
-        <v>95.23999999999999</v>
+        <v>96.62</v>
       </c>
       <c r="D29" t="n">
-        <v>97.83</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.91</v>
+        <v>97.37</v>
       </c>
       <c r="C30" t="n">
-        <v>95.34999999999999</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>97.22</v>
+        <v>97.65000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.98</v>
+        <v>97.52</v>
       </c>
       <c r="C31" t="n">
-        <v>95.44</v>
+        <v>97.41</v>
       </c>
       <c r="D31" t="n">
-        <v>97.25</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.94</v>
+        <v>97.66</v>
       </c>
       <c r="C32" t="n">
-        <v>96.62</v>
+        <v>97.44</v>
       </c>
       <c r="D32" t="n">
-        <v>97.70999999999999</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>97.37</v>
+        <v>98.27</v>
       </c>
       <c r="C33" t="n">
-        <v>97.26000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D33" t="n">
-        <v>97.65000000000001</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.52</v>
+        <v>98.62</v>
       </c>
       <c r="C34" t="n">
-        <v>97.41</v>
+        <v>98.78</v>
       </c>
       <c r="D34" t="n">
-        <v>97.77</v>
+        <v>98.23999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.66</v>
+        <v>98.97</v>
       </c>
       <c r="C35" t="n">
-        <v>97.44</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>98.18000000000001</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.27</v>
+        <v>99.59</v>
       </c>
       <c r="C36" t="n">
-        <v>98.3</v>
+        <v>100.24</v>
       </c>
       <c r="D36" t="n">
-        <v>98.19</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.62</v>
+        <v>100.41</v>
       </c>
       <c r="C37" t="n">
-        <v>98.78</v>
+        <v>101.31</v>
       </c>
       <c r="D37" t="n">
-        <v>98.23999999999999</v>
+        <v>98.29000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.23</v>
+        <v>102.38</v>
       </c>
       <c r="C38" t="n">
-        <v>102.06</v>
+        <v>103.83</v>
       </c>
       <c r="D38" t="n">
-        <v>98.92</v>
+        <v>98.34999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.92</v>
+        <v>103.97</v>
       </c>
       <c r="C39" t="n">
-        <v>102.73</v>
+        <v>105.86</v>
       </c>
       <c r="D39" t="n">
-        <v>99.69</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.99</v>
+        <v>104.58</v>
       </c>
       <c r="C40" t="n">
-        <v>104.08</v>
+        <v>106.69</v>
       </c>
       <c r="D40" t="n">
-        <v>99.93000000000001</v>
+        <v>98.76000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.38</v>
+        <v>103.62</v>
       </c>
       <c r="C41" t="n">
-        <v>103.83</v>
+        <v>105.34</v>
       </c>
       <c r="D41" t="n">
-        <v>98.34999999999999</v>
+        <v>98.81999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>103.97</v>
+        <v>101.96</v>
       </c>
       <c r="C42" t="n">
-        <v>105.86</v>
+        <v>103.15</v>
       </c>
       <c r="D42" t="n">
-        <v>98.73</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.58</v>
+        <v>101.34</v>
       </c>
       <c r="C43" t="n">
-        <v>106.69</v>
+        <v>102.26</v>
       </c>
       <c r="D43" t="n">
-        <v>98.76000000000001</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.62</v>
+        <v>101.39</v>
       </c>
       <c r="C44" t="n">
-        <v>105.34</v>
+        <v>102.37</v>
       </c>
       <c r="D44" t="n">
-        <v>98.81999999999999</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.96</v>
+        <v>101.38</v>
       </c>
       <c r="C45" t="n">
-        <v>103.15</v>
+        <v>102.37</v>
       </c>
       <c r="D45" t="n">
-        <v>98.66</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.34</v>
+        <v>101.37</v>
       </c>
       <c r="C46" t="n">
-        <v>102.26</v>
+        <v>102.35</v>
       </c>
       <c r="D46" t="n">
-        <v>98.77</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>101.39</v>
+        <v>101.23</v>
       </c>
       <c r="C47" t="n">
-        <v>102.37</v>
+        <v>102.06</v>
       </c>
       <c r="D47" t="n">
-        <v>98.65000000000001</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.38</v>
+        <v>101.92</v>
       </c>
       <c r="C48" t="n">
-        <v>102.37</v>
+        <v>102.73</v>
       </c>
       <c r="D48" t="n">
-        <v>98.64</v>
+        <v>99.69</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101.37</v>
+        <v>102.99</v>
       </c>
       <c r="C49" t="n">
-        <v>102.35</v>
+        <v>104.08</v>
       </c>
       <c r="D49" t="n">
-        <v>98.65000000000001</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>108.43</v>
+        <v>103.47</v>
       </c>
       <c r="C50" t="n">
-        <v>110.85</v>
+        <v>104.62</v>
       </c>
       <c r="D50" t="n">
-        <v>101.67</v>
+        <v>100.26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>108.13</v>
+        <v>103.54</v>
       </c>
       <c r="C51" t="n">
-        <v>110.74</v>
+        <v>104.63</v>
       </c>
       <c r="D51" t="n">
-        <v>100.87</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>107.07</v>
+        <v>103.99</v>
       </c>
       <c r="C52" t="n">
-        <v>109.44</v>
+        <v>105.07</v>
       </c>
       <c r="D52" t="n">
-        <v>100.48</v>
+        <v>100.96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>103.47</v>
+        <v>105.01</v>
       </c>
       <c r="C53" t="n">
-        <v>104.62</v>
+        <v>106.16</v>
       </c>
       <c r="D53" t="n">
-        <v>100.26</v>
+        <v>101.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>103.54</v>
+        <v>105.7</v>
       </c>
       <c r="C54" t="n">
-        <v>104.63</v>
+        <v>107.12</v>
       </c>
       <c r="D54" t="n">
-        <v>100.48</v>
+        <v>101.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>103.99</v>
+        <v>106.4</v>
       </c>
       <c r="C55" t="n">
-        <v>105.07</v>
+        <v>108.06</v>
       </c>
       <c r="D55" t="n">
-        <v>100.96</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>105.01</v>
+        <v>106.38</v>
       </c>
       <c r="C56" t="n">
-        <v>106.16</v>
+        <v>108.15</v>
       </c>
       <c r="D56" t="n">
-        <v>101.81</v>
+        <v>101.43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>105.7</v>
+        <v>106.81</v>
       </c>
       <c r="C57" t="n">
-        <v>107.12</v>
+        <v>108.67</v>
       </c>
       <c r="D57" t="n">
-        <v>101.74</v>
+        <v>101.61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>106.4</v>
+        <v>107.95</v>
       </c>
       <c r="C58" t="n">
-        <v>108.06</v>
+        <v>110.19</v>
       </c>
       <c r="D58" t="n">
-        <v>101.75</v>
+        <v>101.69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>106.38</v>
+        <v>108.43</v>
       </c>
       <c r="C59" t="n">
-        <v>108.15</v>
+        <v>110.85</v>
       </c>
       <c r="D59" t="n">
-        <v>101.43</v>
+        <v>101.67</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>106.81</v>
+        <v>108.13</v>
       </c>
       <c r="C60" t="n">
-        <v>108.67</v>
+        <v>110.74</v>
       </c>
       <c r="D60" t="n">
-        <v>101.61</v>
+        <v>100.87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>107.95</v>
+        <v>107.07</v>
       </c>
       <c r="C61" t="n">
-        <v>110.19</v>
+        <v>109.44</v>
       </c>
       <c r="D61" t="n">
-        <v>101.69</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>104.01</v>
+        <v>105.81</v>
       </c>
       <c r="C62" t="n">
-        <v>105.62</v>
+        <v>107.8</v>
       </c>
       <c r="D62" t="n">
-        <v>99.54000000000001</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>103.21</v>
+        <v>105.37</v>
       </c>
       <c r="C63" t="n">
-        <v>104.53</v>
+        <v>107.14</v>
       </c>
       <c r="D63" t="n">
-        <v>99.53</v>
+        <v>100.41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>103.22</v>
+        <v>105.64</v>
       </c>
       <c r="C64" t="n">
-        <v>104.55</v>
+        <v>107.61</v>
       </c>
       <c r="D64" t="n">
-        <v>99.52</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>105.81</v>
+        <v>105.78</v>
       </c>
       <c r="C65" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D65" t="n">
-        <v>100.25</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>105.37</v>
+        <v>105.97</v>
       </c>
       <c r="C66" t="n">
-        <v>107.14</v>
+        <v>108.24</v>
       </c>
       <c r="D66" t="n">
-        <v>100.41</v>
+        <v>99.65000000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>105.64</v>
+        <v>105.24</v>
       </c>
       <c r="C67" t="n">
-        <v>107.61</v>
+        <v>107.22</v>
       </c>
       <c r="D67" t="n">
-        <v>100.15</v>
+        <v>99.72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>105.78</v>
+        <v>105.19</v>
       </c>
       <c r="C68" t="n">
-        <v>107.9</v>
+        <v>107.13</v>
       </c>
       <c r="D68" t="n">
-        <v>99.84</v>
+        <v>99.76000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>105.97</v>
+        <v>105.26</v>
       </c>
       <c r="C69" t="n">
-        <v>108.24</v>
+        <v>107.26</v>
       </c>
       <c r="D69" t="n">
-        <v>99.65000000000001</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>105.24</v>
+        <v>104.5</v>
       </c>
       <c r="C70" t="n">
-        <v>107.22</v>
+        <v>106.24</v>
       </c>
       <c r="D70" t="n">
-        <v>99.72</v>
+        <v>99.63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>105.19</v>
+        <v>104.01</v>
       </c>
       <c r="C71" t="n">
-        <v>107.13</v>
+        <v>105.62</v>
       </c>
       <c r="D71" t="n">
-        <v>99.76000000000001</v>
+        <v>99.54000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>105.26</v>
+        <v>103.21</v>
       </c>
       <c r="C72" t="n">
-        <v>107.26</v>
+        <v>104.53</v>
       </c>
       <c r="D72" t="n">
-        <v>99.68000000000001</v>
+        <v>99.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>104.5</v>
+        <v>103.22</v>
       </c>
       <c r="C73" t="n">
-        <v>106.24</v>
+        <v>104.55</v>
       </c>
       <c r="D73" t="n">
-        <v>99.63</v>
+        <v>99.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102.98</v>
+        <v>103.05</v>
       </c>
       <c r="C74" t="n">
-        <v>103.8</v>
+        <v>104.17</v>
       </c>
       <c r="D74" t="n">
-        <v>100.57</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>102.78</v>
+        <v>103.01</v>
       </c>
       <c r="C75" t="n">
-        <v>103.38</v>
+        <v>104.16</v>
       </c>
       <c r="D75" t="n">
-        <v>101</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>103.05</v>
+        <v>102.49</v>
       </c>
       <c r="C76" t="n">
-        <v>103.6</v>
+        <v>103.45</v>
       </c>
       <c r="D76" t="n">
-        <v>101.46</v>
+        <v>99.67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>103.05</v>
+        <v>101.87</v>
       </c>
       <c r="C77" t="n">
-        <v>104.17</v>
+        <v>102.64</v>
       </c>
       <c r="D77" t="n">
-        <v>99.73999999999999</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>103.01</v>
+        <v>102.43</v>
       </c>
       <c r="C78" t="n">
-        <v>104.16</v>
+        <v>103.39</v>
       </c>
       <c r="D78" t="n">
         <v>99.61</v>
@@ -1685,2046 +1685,2046 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>102.49</v>
+        <v>103.52</v>
       </c>
       <c r="C79" t="n">
-        <v>103.45</v>
+        <v>104.8</v>
       </c>
       <c r="D79" t="n">
-        <v>99.67</v>
+        <v>99.76000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>101.87</v>
+        <v>103.58</v>
       </c>
       <c r="C80" t="n">
-        <v>102.64</v>
+        <v>104.8</v>
       </c>
       <c r="D80" t="n">
-        <v>99.61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>102.43</v>
+        <v>103.4</v>
       </c>
       <c r="C81" t="n">
-        <v>103.39</v>
+        <v>104.46</v>
       </c>
       <c r="D81" t="n">
-        <v>99.61</v>
+        <v>100.28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>103.52</v>
+        <v>103.45</v>
       </c>
       <c r="C82" t="n">
-        <v>104.8</v>
+        <v>104.41</v>
       </c>
       <c r="D82" t="n">
-        <v>99.76000000000001</v>
+        <v>100.62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>103.58</v>
+        <v>102.98</v>
       </c>
       <c r="C83" t="n">
-        <v>104.8</v>
+        <v>103.8</v>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>100.57</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>103.4</v>
+        <v>102.78</v>
       </c>
       <c r="C84" t="n">
-        <v>104.46</v>
+        <v>103.38</v>
       </c>
       <c r="D84" t="n">
-        <v>100.28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>103.45</v>
+        <v>103.05</v>
       </c>
       <c r="C85" t="n">
-        <v>104.41</v>
+        <v>103.6</v>
       </c>
       <c r="D85" t="n">
-        <v>100.62</v>
+        <v>101.46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>103.21</v>
+        <v>103.3</v>
       </c>
       <c r="C86" t="n">
-        <v>103.11</v>
+        <v>103.82</v>
       </c>
       <c r="D86" t="n">
-        <v>103.5</v>
+        <v>101.81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>104.55</v>
+        <v>102.6</v>
       </c>
       <c r="C87" t="n">
-        <v>104.83</v>
+        <v>102.83</v>
       </c>
       <c r="D87" t="n">
-        <v>103.72</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>105.43</v>
+        <v>102.65</v>
       </c>
       <c r="C88" t="n">
-        <v>106.01</v>
+        <v>102.93</v>
       </c>
       <c r="D88" t="n">
-        <v>103.71</v>
+        <v>101.85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>103.3</v>
+        <v>102.87</v>
       </c>
       <c r="C89" t="n">
-        <v>103.82</v>
+        <v>103.13</v>
       </c>
       <c r="D89" t="n">
-        <v>101.81</v>
+        <v>102.13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>102.6</v>
+        <v>102.76</v>
       </c>
       <c r="C90" t="n">
-        <v>102.83</v>
+        <v>102.87</v>
       </c>
       <c r="D90" t="n">
-        <v>101.91</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>102.65</v>
+        <v>102.49</v>
       </c>
       <c r="C91" t="n">
-        <v>102.93</v>
+        <v>102.48</v>
       </c>
       <c r="D91" t="n">
-        <v>101.85</v>
+        <v>102.54</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>102.87</v>
+        <v>102.39</v>
       </c>
       <c r="C92" t="n">
-        <v>103.13</v>
+        <v>102.15</v>
       </c>
       <c r="D92" t="n">
-        <v>102.13</v>
+        <v>103.07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>102.76</v>
+        <v>102.56</v>
       </c>
       <c r="C93" t="n">
-        <v>102.87</v>
+        <v>102.23</v>
       </c>
       <c r="D93" t="n">
-        <v>102.44</v>
+        <v>103.53</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>102.49</v>
+        <v>102.71</v>
       </c>
       <c r="C94" t="n">
-        <v>102.48</v>
+        <v>102.5</v>
       </c>
       <c r="D94" t="n">
-        <v>102.54</v>
+        <v>103.32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>102.39</v>
+        <v>103.21</v>
       </c>
       <c r="C95" t="n">
-        <v>102.15</v>
+        <v>103.11</v>
       </c>
       <c r="D95" t="n">
-        <v>103.07</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>102.56</v>
+        <v>104.55</v>
       </c>
       <c r="C96" t="n">
-        <v>102.23</v>
+        <v>104.83</v>
       </c>
       <c r="D96" t="n">
-        <v>103.53</v>
+        <v>103.72</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>102.71</v>
+        <v>105.43</v>
       </c>
       <c r="C97" t="n">
-        <v>102.5</v>
+        <v>106.01</v>
       </c>
       <c r="D97" t="n">
-        <v>103.32</v>
+        <v>103.71</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>106.59</v>
+        <v>106.07</v>
       </c>
       <c r="C98" t="n">
-        <v>107.67</v>
+        <v>106.53</v>
       </c>
       <c r="D98" t="n">
-        <v>103.13</v>
+        <v>104.63</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>101.99</v>
+        <v>106.62</v>
       </c>
       <c r="C99" t="n">
-        <v>101.95</v>
+        <v>107.16</v>
       </c>
       <c r="D99" t="n">
-        <v>102.12</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.86</v>
+        <v>107.95</v>
       </c>
       <c r="C100" t="n">
-        <v>98.13</v>
+        <v>108.72</v>
       </c>
       <c r="D100" t="n">
-        <v>101.19</v>
+        <v>105.48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>106.07</v>
+        <v>108.12</v>
       </c>
       <c r="C101" t="n">
-        <v>106.53</v>
+        <v>108.96</v>
       </c>
       <c r="D101" t="n">
-        <v>104.63</v>
+        <v>105.41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>106.62</v>
+        <v>108.22</v>
       </c>
       <c r="C102" t="n">
-        <v>107.16</v>
+        <v>109.19</v>
       </c>
       <c r="D102" t="n">
-        <v>104.9</v>
+        <v>105.11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>107.95</v>
+        <v>108.84</v>
       </c>
       <c r="C103" t="n">
-        <v>108.72</v>
+        <v>110.1</v>
       </c>
       <c r="D103" t="n">
-        <v>105.48</v>
+        <v>104.78</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>108.12</v>
+        <v>110.03</v>
       </c>
       <c r="C104" t="n">
-        <v>108.96</v>
+        <v>111.71</v>
       </c>
       <c r="D104" t="n">
-        <v>105.41</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>108.22</v>
+        <v>110.06</v>
       </c>
       <c r="C105" t="n">
-        <v>109.19</v>
+        <v>111.95</v>
       </c>
       <c r="D105" t="n">
-        <v>105.11</v>
+        <v>103.97</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>108.84</v>
+        <v>109.13</v>
       </c>
       <c r="C106" t="n">
-        <v>110.1</v>
+        <v>110.83</v>
       </c>
       <c r="D106" t="n">
-        <v>104.78</v>
+        <v>103.65</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>110.03</v>
+        <v>106.59</v>
       </c>
       <c r="C107" t="n">
-        <v>111.71</v>
+        <v>107.67</v>
       </c>
       <c r="D107" t="n">
-        <v>104.6</v>
+        <v>103.13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>110.06</v>
+        <v>101.99</v>
       </c>
       <c r="C108" t="n">
-        <v>111.95</v>
+        <v>101.95</v>
       </c>
       <c r="D108" t="n">
-        <v>103.97</v>
+        <v>102.12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>109.13</v>
+        <v>98.86</v>
       </c>
       <c r="C109" t="n">
-        <v>110.83</v>
+        <v>98.13</v>
       </c>
       <c r="D109" t="n">
-        <v>103.65</v>
+        <v>101.19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>94.15000000000001</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>92.77</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>98.56</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97.92</v>
+        <v>95.53</v>
       </c>
       <c r="C111" t="n">
-        <v>97.33</v>
+        <v>94.28</v>
       </c>
       <c r="D111" t="n">
-        <v>99.78</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>101.7</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>101.98</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>100.8</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>96.65000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>95.56999999999999</v>
+        <v>91.89</v>
       </c>
       <c r="D113" t="n">
-        <v>100.12</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>95.53</v>
+        <v>92.8</v>
       </c>
       <c r="C114" t="n">
-        <v>94.28</v>
+        <v>91.16</v>
       </c>
       <c r="D114" t="n">
-        <v>99.55</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>94.01000000000001</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>92.56999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>98.63</v>
+        <v>97.84999999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>93.40000000000001</v>
+        <v>91.78</v>
       </c>
       <c r="C116" t="n">
-        <v>91.89</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>98.28</v>
+        <v>97.67</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>92.8</v>
+        <v>92.14</v>
       </c>
       <c r="C117" t="n">
-        <v>91.16</v>
+        <v>90.25</v>
       </c>
       <c r="D117" t="n">
-        <v>98.06999999999999</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>92.18000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>90.40000000000001</v>
+        <v>91.38</v>
       </c>
       <c r="D118" t="n">
-        <v>97.84999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>91.78</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>89.93000000000001</v>
+        <v>92.77</v>
       </c>
       <c r="D119" t="n">
-        <v>97.67</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>92.14</v>
+        <v>97.92</v>
       </c>
       <c r="C120" t="n">
-        <v>90.25</v>
+        <v>97.33</v>
       </c>
       <c r="D120" t="n">
-        <v>98.14</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>93.01000000000001</v>
+        <v>101.7</v>
       </c>
       <c r="C121" t="n">
-        <v>91.38</v>
+        <v>101.98</v>
       </c>
       <c r="D121" t="n">
-        <v>98.2</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>105.04</v>
+        <v>104.32</v>
       </c>
       <c r="C122" t="n">
-        <v>105.8</v>
+        <v>105.49</v>
       </c>
       <c r="D122" t="n">
-        <v>102.58</v>
+        <v>100.55</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>106.06</v>
+        <v>105.39</v>
       </c>
       <c r="C123" t="n">
-        <v>106.94</v>
+        <v>106.76</v>
       </c>
       <c r="D123" t="n">
-        <v>103.25</v>
+        <v>100.97</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>105.93</v>
+        <v>105.91</v>
       </c>
       <c r="C124" t="n">
-        <v>106.67</v>
+        <v>107.38</v>
       </c>
       <c r="D124" t="n">
-        <v>103.53</v>
+        <v>101.17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>104.32</v>
+        <v>106.81</v>
       </c>
       <c r="C125" t="n">
-        <v>105.49</v>
+        <v>108.5</v>
       </c>
       <c r="D125" t="n">
-        <v>100.55</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>105.39</v>
+        <v>107.13</v>
       </c>
       <c r="C126" t="n">
-        <v>106.76</v>
+        <v>108.79</v>
       </c>
       <c r="D126" t="n">
-        <v>100.97</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>105.91</v>
+        <v>106.41</v>
       </c>
       <c r="C127" t="n">
-        <v>107.38</v>
+        <v>107.79</v>
       </c>
       <c r="D127" t="n">
-        <v>101.17</v>
+        <v>101.96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>106.81</v>
+        <v>104.84</v>
       </c>
       <c r="C128" t="n">
-        <v>108.5</v>
+        <v>105.69</v>
       </c>
       <c r="D128" t="n">
-        <v>101.4</v>
+        <v>102.09</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>107.13</v>
+        <v>104.32</v>
       </c>
       <c r="C129" t="n">
-        <v>108.79</v>
+        <v>104.99</v>
       </c>
       <c r="D129" t="n">
-        <v>101.8</v>
+        <v>102.17</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>106.41</v>
+        <v>104.33</v>
       </c>
       <c r="C130" t="n">
-        <v>107.79</v>
+        <v>104.9</v>
       </c>
       <c r="D130" t="n">
-        <v>101.96</v>
+        <v>102.46</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>104.84</v>
+        <v>105.04</v>
       </c>
       <c r="C131" t="n">
-        <v>105.69</v>
+        <v>105.8</v>
       </c>
       <c r="D131" t="n">
-        <v>102.09</v>
+        <v>102.58</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>104.32</v>
+        <v>106.06</v>
       </c>
       <c r="C132" t="n">
-        <v>104.99</v>
+        <v>106.94</v>
       </c>
       <c r="D132" t="n">
-        <v>102.17</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>104.33</v>
+        <v>105.93</v>
       </c>
       <c r="C133" t="n">
-        <v>104.9</v>
+        <v>106.67</v>
       </c>
       <c r="D133" t="n">
-        <v>102.46</v>
+        <v>103.53</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>105.0038</v>
+        <v>106.6435</v>
       </c>
       <c r="C134" t="n">
-        <v>105.2432</v>
+        <v>107.5328</v>
       </c>
       <c r="D134" t="n">
-        <v>104.2217</v>
+        <v>103.7985</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>102.7179</v>
+        <v>107.2322</v>
       </c>
       <c r="C135" t="n">
-        <v>102.6062</v>
+        <v>108.2118</v>
       </c>
       <c r="D135" t="n">
-        <v>103.0855</v>
+        <v>104.0881</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>101.6854</v>
+        <v>107.3081</v>
       </c>
       <c r="C136" t="n">
-        <v>101.4315</v>
+        <v>108.2214</v>
       </c>
       <c r="D136" t="n">
-        <v>102.5234</v>
+        <v>104.3614</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>106.6435</v>
+        <v>106.821</v>
       </c>
       <c r="C137" t="n">
-        <v>107.5328</v>
+        <v>107.4903</v>
       </c>
       <c r="D137" t="n">
-        <v>103.7985</v>
+        <v>104.6354</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>107.2322</v>
+        <v>106.7851</v>
       </c>
       <c r="C138" t="n">
-        <v>108.2118</v>
+        <v>107.4535</v>
       </c>
       <c r="D138" t="n">
-        <v>104.0881</v>
+        <v>104.5992</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>107.3081</v>
+        <v>107.1209</v>
       </c>
       <c r="C139" t="n">
-        <v>108.2214</v>
+        <v>107.8807</v>
       </c>
       <c r="D139" t="n">
-        <v>104.3614</v>
+        <v>104.6498</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>106.821</v>
+        <v>107.5417</v>
       </c>
       <c r="C140" t="n">
-        <v>107.4903</v>
+        <v>108.4045</v>
       </c>
       <c r="D140" t="n">
-        <v>104.6354</v>
+        <v>104.7543</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>106.7851</v>
+        <v>107.2526</v>
       </c>
       <c r="C141" t="n">
-        <v>107.4535</v>
+        <v>108.0149</v>
       </c>
       <c r="D141" t="n">
-        <v>104.5992</v>
+        <v>104.7851</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>107.1209</v>
+        <v>106.5227</v>
       </c>
       <c r="C142" t="n">
-        <v>107.8807</v>
+        <v>107.1085</v>
       </c>
       <c r="D142" t="n">
-        <v>104.6498</v>
+        <v>104.6192</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>107.5417</v>
+        <v>105.0038</v>
       </c>
       <c r="C143" t="n">
-        <v>108.4045</v>
+        <v>105.2432</v>
       </c>
       <c r="D143" t="n">
-        <v>104.7543</v>
+        <v>104.2217</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>107.2526</v>
+        <v>102.7179</v>
       </c>
       <c r="C144" t="n">
-        <v>108.0149</v>
+        <v>102.6062</v>
       </c>
       <c r="D144" t="n">
-        <v>104.7851</v>
+        <v>103.0855</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>106.5227</v>
+        <v>101.6854</v>
       </c>
       <c r="C145" t="n">
-        <v>107.1085</v>
+        <v>101.4315</v>
       </c>
       <c r="D145" t="n">
-        <v>104.6192</v>
+        <v>102.5234</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>97.24420000000001</v>
+        <v>100.7347</v>
       </c>
       <c r="C146" t="n">
-        <v>96.3246</v>
+        <v>100.3168</v>
       </c>
       <c r="D146" t="n">
-        <v>100.2276</v>
+        <v>102.1148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>97.8005</v>
+        <v>100.0284</v>
       </c>
       <c r="C147" t="n">
-        <v>97.0093</v>
+        <v>99.5291</v>
       </c>
       <c r="D147" t="n">
-        <v>100.3388</v>
+        <v>101.6944</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>98.0603</v>
+        <v>99.6829</v>
       </c>
       <c r="C148" t="n">
-        <v>97.28700000000001</v>
+        <v>99.1707</v>
       </c>
       <c r="D148" t="n">
-        <v>100.5278</v>
+        <v>101.4006</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.7347</v>
+        <v>99.30159999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>100.3168</v>
+        <v>98.756</v>
       </c>
       <c r="D149" t="n">
-        <v>102.1148</v>
+        <v>101.1368</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.0284</v>
+        <v>98.6019</v>
       </c>
       <c r="C150" t="n">
-        <v>99.5291</v>
+        <v>97.91370000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>101.6944</v>
+        <v>100.9113</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>99.6829</v>
+        <v>97.9157</v>
       </c>
       <c r="C151" t="n">
-        <v>99.1707</v>
+        <v>97.07170000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>101.4006</v>
+        <v>100.7263</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>99.30159999999999</v>
+        <v>97.1349</v>
       </c>
       <c r="C152" t="n">
-        <v>98.756</v>
+        <v>96.1341</v>
       </c>
       <c r="D152" t="n">
-        <v>101.1368</v>
+        <v>100.4449</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>98.6019</v>
+        <v>96.52160000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>97.91370000000001</v>
+        <v>95.4057</v>
       </c>
       <c r="D153" t="n">
-        <v>100.9113</v>
+        <v>100.1973</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>97.9157</v>
+        <v>96.4455</v>
       </c>
       <c r="C154" t="n">
-        <v>97.07170000000001</v>
+        <v>95.3192</v>
       </c>
       <c r="D154" t="n">
-        <v>100.7263</v>
+        <v>100.139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>97.1349</v>
+        <v>97.24420000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>96.1341</v>
+        <v>96.3246</v>
       </c>
       <c r="D155" t="n">
-        <v>100.4449</v>
+        <v>100.2276</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>96.52160000000001</v>
+        <v>97.8005</v>
       </c>
       <c r="C156" t="n">
-        <v>95.4057</v>
+        <v>97.0093</v>
       </c>
       <c r="D156" t="n">
-        <v>100.1973</v>
+        <v>100.3388</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>96.4455</v>
+        <v>98.0603</v>
       </c>
       <c r="C157" t="n">
-        <v>95.3192</v>
+        <v>97.28700000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>100.139</v>
+        <v>100.5278</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>98.49290000000001</v>
+        <v>98.36279999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>98.0284</v>
+        <v>97.63420000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>99.9708</v>
+        <v>100.6835</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>98.5758</v>
+        <v>98.3746</v>
       </c>
       <c r="C159" t="n">
-        <v>98.0947</v>
+        <v>97.63160000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>100.1081</v>
+        <v>100.7425</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>98.6443</v>
+        <v>98.081</v>
       </c>
       <c r="C160" t="n">
-        <v>98.2175</v>
+        <v>97.31829999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>100.0055</v>
+        <v>100.514</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>98.36279999999999</v>
+        <v>97.38249999999999</v>
       </c>
       <c r="C161" t="n">
-        <v>97.63420000000001</v>
+        <v>96.4778</v>
       </c>
       <c r="D161" t="n">
-        <v>100.6835</v>
+        <v>100.2856</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>98.3746</v>
+        <v>97.13420000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>97.63160000000001</v>
+        <v>96.2141</v>
       </c>
       <c r="D162" t="n">
-        <v>100.7425</v>
+        <v>100.0857</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>98.081</v>
+        <v>97.3035</v>
       </c>
       <c r="C163" t="n">
-        <v>97.31829999999999</v>
+        <v>96.4679</v>
       </c>
       <c r="D163" t="n">
-        <v>100.514</v>
+        <v>99.97450000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>97.38249999999999</v>
+        <v>97.72880000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>96.4778</v>
+        <v>97.0219</v>
       </c>
       <c r="D164" t="n">
-        <v>100.2856</v>
+        <v>99.98099999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>97.13420000000001</v>
+        <v>98.375</v>
       </c>
       <c r="C165" t="n">
-        <v>96.2141</v>
+        <v>97.8627</v>
       </c>
       <c r="D165" t="n">
-        <v>100.0857</v>
+        <v>100.0043</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>97.3035</v>
+        <v>98.6561</v>
       </c>
       <c r="C166" t="n">
-        <v>96.4679</v>
+        <v>98.2533</v>
       </c>
       <c r="D166" t="n">
-        <v>99.97450000000001</v>
+        <v>99.9383</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>97.72880000000001</v>
+        <v>98.49290000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>97.0219</v>
+        <v>98.0284</v>
       </c>
       <c r="D167" t="n">
-        <v>99.98099999999999</v>
+        <v>99.9708</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>98.375</v>
+        <v>98.5758</v>
       </c>
       <c r="C168" t="n">
-        <v>97.8627</v>
+        <v>98.0947</v>
       </c>
       <c r="D168" t="n">
-        <v>100.0043</v>
+        <v>100.1081</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>98.6561</v>
+        <v>98.6443</v>
       </c>
       <c r="C169" t="n">
-        <v>98.2533</v>
+        <v>98.2175</v>
       </c>
       <c r="D169" t="n">
-        <v>99.9383</v>
+        <v>100.0055</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>97.7572</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>97.04900000000001</v>
+        <v>97.95440000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>100.0396</v>
+        <v>99.65470000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>97.30719999999999</v>
+        <v>97.98180000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>96.51130000000001</v>
+        <v>97.4551</v>
       </c>
       <c r="D171" t="n">
-        <v>99.8719</v>
+        <v>99.67010000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>96.6848</v>
+        <v>97.6981</v>
       </c>
       <c r="C172" t="n">
-        <v>95.7051</v>
+        <v>97.0483</v>
       </c>
       <c r="D172" t="n">
-        <v>99.8417</v>
+        <v>99.7908</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>98.40000000000001</v>
+        <v>97.9958</v>
       </c>
       <c r="C173" t="n">
-        <v>97.95440000000001</v>
+        <v>97.3908</v>
       </c>
       <c r="D173" t="n">
-        <v>99.65470000000001</v>
+        <v>99.9425</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>97.98180000000001</v>
+        <v>98.5536</v>
       </c>
       <c r="C174" t="n">
-        <v>97.4551</v>
+        <v>98.0506</v>
       </c>
       <c r="D174" t="n">
-        <v>99.67010000000001</v>
+        <v>100.169</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>97.6981</v>
+        <v>98.8908</v>
       </c>
       <c r="C175" t="n">
-        <v>97.0483</v>
+        <v>98.474</v>
       </c>
       <c r="D175" t="n">
-        <v>99.7908</v>
+        <v>100.23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>97.9958</v>
+        <v>99.13120000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>97.3908</v>
+        <v>98.78189999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>99.9425</v>
+        <v>100.2567</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>98.5536</v>
+        <v>98.7962</v>
       </c>
       <c r="C177" t="n">
-        <v>98.0506</v>
+        <v>98.3468</v>
       </c>
       <c r="D177" t="n">
-        <v>100.169</v>
+        <v>100.2432</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>98.8908</v>
+        <v>98.2004</v>
       </c>
       <c r="C178" t="n">
-        <v>98.474</v>
+        <v>97.60760000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>100.23</v>
+        <v>100.1098</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>99.13120000000001</v>
+        <v>97.7572</v>
       </c>
       <c r="C179" t="n">
-        <v>98.78189999999999</v>
+        <v>97.04900000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>100.2567</v>
+        <v>100.0396</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>98.7962</v>
+        <v>97.30719999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>98.3468</v>
+        <v>96.51130000000001</v>
       </c>
       <c r="D180" t="n">
-        <v>100.2432</v>
+        <v>99.8719</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>98.2004</v>
+        <v>96.6848</v>
       </c>
       <c r="C181" t="n">
-        <v>97.60760000000001</v>
+        <v>95.7051</v>
       </c>
       <c r="D181" t="n">
-        <v>100.1098</v>
+        <v>99.8417</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>94.09999999999999</v>
+        <v>95.6798</v>
       </c>
       <c r="C182" t="n">
-        <v>92.40000000000001</v>
+        <v>94.3951</v>
       </c>
       <c r="D182" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8454</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>94.08069999999999</v>
+        <v>95.2024</v>
       </c>
       <c r="C183" t="n">
-        <v>92.3586</v>
+        <v>93.76439999999999</v>
       </c>
       <c r="D183" t="n">
-        <v>99.56100000000001</v>
+        <v>99.86579999999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>94.1186</v>
+        <v>95.4397</v>
       </c>
       <c r="C184" t="n">
-        <v>92.39060000000001</v>
+        <v>94.07340000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>99.58839999999999</v>
+        <v>99.8557</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>95.6798</v>
+        <v>95.42749999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>94.3951</v>
+        <v>94.0821</v>
       </c>
       <c r="D185" t="n">
-        <v>99.8454</v>
+        <v>99.76560000000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>95.2024</v>
+        <v>95.393</v>
       </c>
       <c r="C186" t="n">
-        <v>93.76439999999999</v>
+        <v>94.05329999999999</v>
       </c>
       <c r="D186" t="n">
-        <v>99.86579999999999</v>
+        <v>99.7106</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>95.4397</v>
+        <v>95.1865</v>
       </c>
       <c r="C187" t="n">
-        <v>94.07340000000001</v>
+        <v>93.7647</v>
       </c>
       <c r="D187" t="n">
-        <v>99.8557</v>
+        <v>99.7676</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>95.42749999999999</v>
+        <v>94.63079999999999</v>
       </c>
       <c r="C188" t="n">
-        <v>94.0821</v>
+        <v>93.0508</v>
       </c>
       <c r="D188" t="n">
-        <v>99.76560000000001</v>
+        <v>99.7238</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>95.393</v>
+        <v>94.07729999999999</v>
       </c>
       <c r="C189" t="n">
-        <v>94.05329999999999</v>
+        <v>92.33920000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>99.7106</v>
+        <v>99.67400000000001</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>95.1865</v>
+        <v>94.05500000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>93.7647</v>
+        <v>92.2809</v>
       </c>
       <c r="D190" t="n">
-        <v>99.7676</v>
+        <v>99.7491</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>94.63079999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C191" t="n">
-        <v>93.0508</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>99.7238</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>94.07729999999999</v>
+        <v>94.08069999999999</v>
       </c>
       <c r="C192" t="n">
-        <v>92.33920000000001</v>
+        <v>92.3586</v>
       </c>
       <c r="D192" t="n">
-        <v>99.67400000000001</v>
+        <v>99.56100000000001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>94.05500000000001</v>
+        <v>94.1186</v>
       </c>
       <c r="C193" t="n">
-        <v>92.2809</v>
+        <v>92.39060000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>99.7491</v>
+        <v>99.58839999999999</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>101.2</v>
+        <v>94.72029999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>101.6</v>
+        <v>93.074</v>
       </c>
       <c r="D194" t="n">
-        <v>100.1</v>
+        <v>99.4847</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>103.3</v>
+        <v>95.09739999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>104.3</v>
+        <v>93.5398</v>
       </c>
       <c r="D195" t="n">
-        <v>100.4</v>
+        <v>99.5594</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>105.5</v>
+        <v>95.6793</v>
       </c>
       <c r="C196" t="n">
-        <v>107.2</v>
+        <v>94.255</v>
       </c>
       <c r="D196" t="n">
-        <v>100.8</v>
+        <v>99.7611</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>94.72029999999999</v>
+        <v>96.6187</v>
       </c>
       <c r="C197" t="n">
-        <v>93.074</v>
+        <v>95.5095</v>
       </c>
       <c r="D197" t="n">
-        <v>99.4847</v>
+        <v>99.7903</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>95.09739999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C198" t="n">
-        <v>93.5398</v>
+        <v>96.3</v>
       </c>
       <c r="D198" t="n">
-        <v>99.5594</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>95.6793</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>94.255</v>
+        <v>96.5</v>
       </c>
       <c r="D199" t="n">
-        <v>99.7611</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>96.6187</v>
+        <v>98.3</v>
       </c>
       <c r="C200" t="n">
-        <v>95.5095</v>
+        <v>97.7</v>
       </c>
       <c r="D200" t="n">
-        <v>99.7903</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>97.2</v>
+        <v>99.2</v>
       </c>
       <c r="C201" t="n">
-        <v>96.3</v>
+        <v>99</v>
       </c>
       <c r="D201" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>97.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C202" t="n">
-        <v>96.5</v>
+        <v>100.1</v>
       </c>
       <c r="D202" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>98.3</v>
+        <v>101.2</v>
       </c>
       <c r="C203" t="n">
-        <v>97.7</v>
+        <v>101.6</v>
       </c>
       <c r="D203" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>99.2</v>
+        <v>103.3</v>
       </c>
       <c r="C204" t="n">
-        <v>99</v>
+        <v>104.3</v>
       </c>
       <c r="D204" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>100.1</v>
+        <v>105.5</v>
       </c>
       <c r="C205" t="n">
-        <v>100.1</v>
+        <v>107.2</v>
       </c>
       <c r="D205" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>106.9</v>
       </c>
       <c r="C206" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D206" t="n">
         <v>100.8</v>
@@ -3733,110 +3733,110 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>105.8</v>
+        <v>107.8</v>
       </c>
       <c r="C207" t="n">
-        <v>107.5</v>
+        <v>110.4</v>
       </c>
       <c r="D207" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>104.9</v>
+        <v>107.6</v>
       </c>
       <c r="C208" t="n">
-        <v>106.4</v>
+        <v>110.1</v>
       </c>
       <c r="D208" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>106.9</v>
+        <v>106.4</v>
       </c>
       <c r="C209" t="n">
-        <v>109.1</v>
+        <v>108.4</v>
       </c>
       <c r="D209" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>107.8</v>
+        <v>105.5</v>
       </c>
       <c r="C210" t="n">
-        <v>110.4</v>
+        <v>107.3</v>
       </c>
       <c r="D210" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>107.6</v>
+        <v>105.5</v>
       </c>
       <c r="C211" t="n">
-        <v>110.1</v>
+        <v>107.3</v>
       </c>
       <c r="D211" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>106.4</v>
+        <v>105.5</v>
       </c>
       <c r="C212" t="n">
-        <v>108.4</v>
+        <v>107.3</v>
       </c>
       <c r="D212" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>105.5</v>
+        <v>106.3</v>
       </c>
       <c r="C213" t="n">
-        <v>107.3</v>
+        <v>108.3</v>
       </c>
       <c r="D213" t="n">
         <v>100.6</v>
@@ -3845,46 +3845,46 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>105.5</v>
+        <v>106.9</v>
       </c>
       <c r="C214" t="n">
-        <v>107.3</v>
+        <v>109.1</v>
       </c>
       <c r="D214" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>105.5</v>
+        <v>106.9</v>
       </c>
       <c r="C215" t="n">
-        <v>107.3</v>
+        <v>109</v>
       </c>
       <c r="D215" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>106.3</v>
+        <v>105.8</v>
       </c>
       <c r="C216" t="n">
-        <v>108.3</v>
+        <v>107.5</v>
       </c>
       <c r="D216" t="n">
         <v>100.6</v>
@@ -3893,94 +3893,94 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>106.9</v>
+        <v>104.9</v>
       </c>
       <c r="C217" t="n">
-        <v>109.1</v>
+        <v>106.4</v>
       </c>
       <c r="D217" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>103.3</v>
+        <v>104.3346</v>
       </c>
       <c r="C218" t="n">
-        <v>104.2</v>
+        <v>105.7</v>
       </c>
       <c r="D218" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>102.7</v>
+        <v>103.7</v>
       </c>
       <c r="C219" t="n">
-        <v>103.3</v>
+        <v>104.8</v>
       </c>
       <c r="D219" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>100.9</v>
+        <v>103.1</v>
       </c>
       <c r="C220" t="n">
-        <v>101</v>
+        <v>104.1</v>
       </c>
       <c r="D220" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>104.3346</v>
+        <v>103.4</v>
       </c>
       <c r="C221" t="n">
-        <v>105.7</v>
+        <v>104.5</v>
       </c>
       <c r="D221" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="C222" t="n">
-        <v>104.8</v>
+        <v>105.4</v>
       </c>
       <c r="D222" t="n">
         <v>100.3</v>
@@ -3989,606 +3989,606 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>103.1</v>
+        <v>104.7</v>
       </c>
       <c r="C223" t="n">
-        <v>104.1</v>
+        <v>106.1</v>
       </c>
       <c r="D223" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>103.4</v>
+        <v>104.6</v>
       </c>
       <c r="C224" t="n">
-        <v>104.5</v>
+        <v>106</v>
       </c>
       <c r="D224" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>104.1</v>
       </c>
       <c r="C225" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="D225" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>104.7</v>
+        <v>103.6</v>
       </c>
       <c r="C226" t="n">
-        <v>106.1</v>
+        <v>104.6</v>
       </c>
       <c r="D226" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>104.6</v>
+        <v>103.3</v>
       </c>
       <c r="C227" t="n">
-        <v>106</v>
+        <v>104.2</v>
       </c>
       <c r="D227" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>104.1</v>
+        <v>102.7</v>
       </c>
       <c r="C228" t="n">
-        <v>105.2</v>
+        <v>103.3</v>
       </c>
       <c r="D228" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="C229" t="n">
-        <v>104.6</v>
+        <v>101</v>
       </c>
       <c r="D229" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>98.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C230" t="n">
-        <v>97.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>101.4</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>98.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C231" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D231" t="n">
-        <v>101.6</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="C232" t="n">
-        <v>98.8</v>
+        <v>100.3</v>
       </c>
       <c r="D232" t="n">
-        <v>101.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="C233" t="n">
-        <v>99.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="D233" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="C234" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="D234" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="C235" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="D235" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="C236" t="n">
-        <v>100.9</v>
+        <v>99.3</v>
       </c>
       <c r="D236" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>100.6</v>
+        <v>99.2</v>
       </c>
       <c r="C237" t="n">
-        <v>100.6</v>
+        <v>98.7</v>
       </c>
       <c r="D237" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C238" t="n">
-        <v>99.7</v>
+        <v>98</v>
       </c>
       <c r="D238" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>99.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C239" t="n">
-        <v>99.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>100.8</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>99.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C240" t="n">
-        <v>98.7</v>
+        <v>97.5</v>
       </c>
       <c r="D240" t="n">
-        <v>100.7</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C241" t="n">
         <v>98.8</v>
       </c>
-      <c r="C241" t="n">
-        <v>98</v>
-      </c>
       <c r="D241" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>97.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C242" t="n">
-        <v>97.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D242" t="n">
-        <v>99.5</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>98.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C243" t="n">
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="D243" t="n">
-        <v>99.2</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C244" t="n">
-        <v>99.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>99.59999999999999</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>100.1</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C245" t="n">
-        <v>99.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D245" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>99.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C246" t="n">
-        <v>99</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D246" t="n">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="C247" t="n">
-        <v>97.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="D247" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>96.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C248" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="D248" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>96.3</v>
+        <v>98</v>
       </c>
       <c r="C249" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D249" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>97</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C250" t="n">
-        <v>95.8</v>
+        <v>97.2</v>
       </c>
       <c r="D250" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C251" t="n">
-        <v>96.5</v>
+        <v>97.3</v>
       </c>
       <c r="D251" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="C252" t="n">
-        <v>97</v>
+        <v>98.2</v>
       </c>
       <c r="D252" t="n">
-        <v>100.6</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>97.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>97.2</v>
+        <v>99.5</v>
       </c>
       <c r="D253" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>113.5</v>
+        <v>100.3</v>
       </c>
       <c r="C254" t="n">
-        <v>117.9</v>
+        <v>100.5</v>
       </c>
       <c r="D254" t="n">
-        <v>100.6</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>112.9</v>
+        <v>101.7</v>
       </c>
       <c r="C255" t="n">
-        <v>117</v>
+        <v>102.3</v>
       </c>
       <c r="D255" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>110.3</v>
+        <v>104.4</v>
       </c>
       <c r="C256" t="n">
-        <v>113.4</v>
+        <v>105.8</v>
       </c>
       <c r="D256" t="n">
-        <v>101</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="C257" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="D257" t="n">
         <v>100.3</v>
-      </c>
-      <c r="C257" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="D257" t="n">
-        <v>99.8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>101.7</v>
+        <v>109</v>
       </c>
       <c r="C258" t="n">
-        <v>102.3</v>
+        <v>112</v>
       </c>
       <c r="D258" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>104.4</v>
+        <v>108.8</v>
       </c>
       <c r="C259" t="n">
-        <v>105.8</v>
+        <v>111.8</v>
       </c>
       <c r="D259" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>106.8</v>
+        <v>109</v>
       </c>
       <c r="C260" t="n">
-        <v>109.1</v>
+        <v>112</v>
       </c>
       <c r="D260" t="n">
         <v>100.3</v>
@@ -4597,81 +4597,81 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>109</v>
+        <v>109.5</v>
       </c>
       <c r="C261" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="D261" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>108.8</v>
+        <v>110.7</v>
       </c>
       <c r="C262" t="n">
-        <v>111.8</v>
+        <v>114.2</v>
       </c>
       <c r="D262" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>109</v>
+        <v>113.5</v>
       </c>
       <c r="C263" t="n">
-        <v>112</v>
+        <v>117.9</v>
       </c>
       <c r="D263" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>109.5</v>
+        <v>112.9</v>
       </c>
       <c r="C264" t="n">
-        <v>112.7</v>
+        <v>117</v>
       </c>
       <c r="D264" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>110.7</v>
+        <v>110.3</v>
       </c>
       <c r="C265" t="n">
-        <v>114.2</v>
+        <v>113.4</v>
       </c>
       <c r="D265" t="n">
-        <v>100.4</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
